--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3506.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3506.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.272825599626213</v>
+        <v>1.783420205116272</v>
       </c>
       <c r="B1">
-        <v>3.569518161428519</v>
+        <v>3.262901782989502</v>
       </c>
       <c r="C1">
-        <v>5.963992334240321</v>
+        <v>2.574892044067383</v>
       </c>
       <c r="D1">
-        <v>2.138112408315499</v>
+        <v>2.46576452255249</v>
       </c>
       <c r="E1">
-        <v>1.336261209105694</v>
+        <v>2.316381454467773</v>
       </c>
     </row>
   </sheetData>
